--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniepank/Dropbox/Master/HHU/semester 4/thesis/Final Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B344CB3F-EFD3-6E4D-A656-9BA5F7463664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B88B3CB-72A8-1240-BFBA-72BCBBE02CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220" xr2:uid="{65DE95FE-9C0E-EE41-ACE4-FB1B4231A26F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Introduction</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Losses</t>
   </si>
   <si>
-    <t>Netwrok architecture</t>
-  </si>
-  <si>
     <t>Organelle description</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Center predictions vs non center</t>
   </si>
   <si>
-    <t>Embeddings</t>
-  </si>
-  <si>
     <t>Grouping of phenotypes?</t>
   </si>
   <si>
@@ -257,14 +251,44 @@
   </si>
   <si>
     <t>Metrics for typical images</t>
+  </si>
+  <si>
+    <t>possible improvements</t>
+  </si>
+  <si>
+    <t>things to be concerned about</t>
+  </si>
+  <si>
+    <t>get the ability to take subsequent images of the well plates (better microscope)</t>
+  </si>
+  <si>
+    <t>Embeddings visualisation</t>
+  </si>
+  <si>
+    <t>Network architecture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -292,11 +316,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,16 +637,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C4E154-9F01-A54D-BE02-15FCCE4BED40}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
@@ -634,39 +660,39 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>46</v>
+      <c r="A5" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -691,17 +717,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -724,13 +750,13 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -738,13 +764,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -752,10 +778,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -763,7 +789,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -771,12 +797,12 @@
         <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="G19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -784,7 +810,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -792,141 +818,154 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
         <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="C42" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>58</v>
+      <c r="B44" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniepank/Dropbox/Master/HHU/semester 4/thesis/Final Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B88B3CB-72A8-1240-BFBA-72BCBBE02CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C3E63-8E47-0549-BA1B-A6B9141AA39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220" xr2:uid="{65DE95FE-9C0E-EE41-ACE4-FB1B4231A26F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Introduction</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Network architecture</t>
+  </si>
+  <si>
+    <t>severity</t>
   </si>
 </sst>
 </file>
@@ -639,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C4E154-9F01-A54D-BE02-15FCCE4BED40}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,6 +888,11 @@
         <v>64</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>35</v>
